--- a/文档/随堂小练联调计划-2017年9月8日.xlsx
+++ b/文档/随堂小练联调计划-2017年9月8日.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="学生端" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
   <si>
     <t>查询模板信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,86 +462,6 @@
   </si>
   <si>
     <t>成绩管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询所有课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.22.201:8080/examinationEvaluation-web/findWrongRecordCourses/{studentId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentId：0040f79169b723180e259c、questionMainId：YXDLkD45Tqj942kd41sPwB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionId：200、  operator:df</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentId：00410cadb820ae2cce7e01、questionId：200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdudentId:0040f79169b723180e259c、courseId:000E45824557CE9D683604</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentId:0040f79169b723180e259c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.22.201:8080/examinationEvaluation-web/studentPracticeInClass/queryWrongRecordChapterAndSubNum/{studentId}/{courseId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.22.201:8080/examinationEvaluation-web/studentPracticeInClass/deleteQuestionByStatus/{questionMainId}/{operator}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionMainid:123dx01;operator:张静怡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.22.201:8080/examinationEvaluation-web/studentPracticeInClass/queryWrongRecordOneQuestion/{studentId}/{questionMainId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.22.201:8080/examinationEvaluation-web/deleteCollectionQuestion/{questionId}/{operator}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionId：200、  operator:df</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.22.201:8080/examinationEvaluation-web/studentPracticeInClass/queryCollectionChapterAndSubNum/{studentId}/{courseId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdudentId:0040f79169b723180e259c、courseId:001F4EBAE4CE280AF03659</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.22.201:8080/examinationEvaluation-web/deleteCollectionQuestion/{questionId}/{operator}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.22.201:8080/examinationEvaluation-web/insertCollectionQuestion/{studentId}/{questionId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常银玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常银玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +469,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,14 +482,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -599,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -607,27 +519,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,19 +565,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -985,17 +871,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.875" customWidth="1"/>
-    <col min="5" max="5" width="80.75" customWidth="1"/>
-    <col min="6" max="6" width="45.125" customWidth="1"/>
+    <col min="4" max="4" width="49.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1257,18 +1142,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="13"/>
       <c r="D33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>97</v>
       </c>
@@ -1276,21 +1161,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" t="s">
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" t="s">
@@ -1299,20 +1184,8 @@
       <c r="D39" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" t="s">
-        <v>128</v>
-      </c>
-      <c r="H39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" t="s">
@@ -1322,23 +1195,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="D41" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" t="s">
@@ -1348,16 +1212,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" t="s">
@@ -1366,24 +1230,12 @@
       <c r="D45" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G45" t="s">
-        <v>128</v>
-      </c>
-      <c r="H45" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" t="s">
@@ -1392,20 +1244,8 @@
       <c r="D47" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G47" t="s">
-        <v>128</v>
-      </c>
-      <c r="H47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" t="s">
@@ -1415,26 +1255,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="D49" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" t="s">
-        <v>120</v>
-      </c>
-      <c r="G49" t="s">
-        <v>128</v>
-      </c>
-      <c r="H49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" t="s">
@@ -1443,51 +1271,39 @@
       <c r="D50" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G50" t="s">
-        <v>128</v>
-      </c>
-      <c r="H50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="D51" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="D52" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="D53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" t="s">
@@ -1497,7 +1313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
       <c r="C57" t="s">
@@ -1507,11 +1323,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="9"/>
       <c r="C59" t="s">
@@ -1520,30 +1336,12 @@
       <c r="D59" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="D60" t="s">
         <v>12</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G60" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1563,16 +1361,8 @@
     <mergeCell ref="B44:B53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E45" r:id="rId1"/>
-    <hyperlink ref="E47" r:id="rId2"/>
-    <hyperlink ref="E49" r:id="rId3"/>
-    <hyperlink ref="E50" r:id="rId4"/>
-    <hyperlink ref="E41" r:id="rId5"/>
-    <hyperlink ref="E39" r:id="rId6"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1581,7 +1371,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1662,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1674,9 +1464,10 @@
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -1695,8 +1486,17 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>93</v>
       </c>
@@ -1704,7 +1504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
@@ -1714,7 +1514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1722,7 +1522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1730,7 +1530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1738,11 +1538,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="10"/>
       <c r="C8" t="s">
@@ -1752,7 +1552,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="10"/>
       <c r="D9" t="s">
@@ -1762,28 +1562,28 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="10"/>
       <c r="D10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="10"/>
       <c r="D11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="10"/>
       <c r="D12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="10"/>
       <c r="C13" t="s">
@@ -1793,18 +1593,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="10"/>
       <c r="D14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" t="s">
